--- a/niantu-gai-train2.xlsx
+++ b/niantu-gai-train2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="989">
   <si>
     <t>Well Name</t>
   </si>
@@ -1613,18 +1613,12 @@
     <t>58.2264957264957</t>
   </si>
   <si>
-    <t>23.355451599550747</t>
-  </si>
-  <si>
     <t>75.0791974656811</t>
   </si>
   <si>
     <t>24.9208025343189</t>
   </si>
   <si>
-    <t>60.8514388918153</t>
-  </si>
-  <si>
     <t>50.1010101010101</t>
   </si>
   <si>
@@ -1634,9 +1628,6 @@
     <t>42.5252525252525</t>
   </si>
   <si>
-    <t>47.82283566757962</t>
-  </si>
-  <si>
     <t>57.4898785425101</t>
   </si>
   <si>
@@ -1646,36 +1637,24 @@
     <t>42.1052631578947</t>
   </si>
   <si>
-    <t>47.986919261975615</t>
-  </si>
-  <si>
     <t>36.3540569020021</t>
   </si>
   <si>
     <t>63.6459430979979</t>
   </si>
   <si>
-    <t>32.63760045888117</t>
-  </si>
-  <si>
     <t>29.4549266247379</t>
   </si>
   <si>
     <t>70.545073375262</t>
   </si>
   <si>
-    <t>29.562453212783574</t>
-  </si>
-  <si>
     <t>34.5872518286311</t>
   </si>
   <si>
     <t>65.4127481713689</t>
   </si>
   <si>
-    <t>29.378981901832038</t>
-  </si>
-  <si>
     <t>22.9405630865485</t>
   </si>
   <si>
@@ -1685,9 +1664,6 @@
     <t>70.9071949947862</t>
   </si>
   <si>
-    <t>27.579320777960135</t>
-  </si>
-  <si>
     <t>44.8529411764706</t>
   </si>
   <si>
@@ -1697,9 +1673,6 @@
     <t>52.5210084033613</t>
   </si>
   <si>
-    <t>41.34715900653419</t>
-  </si>
-  <si>
     <t>26.6389177939646</t>
   </si>
   <si>
@@ -1709,9 +1682,6 @@
     <t>70.8636836628512</t>
   </si>
   <si>
-    <t>25.75755189875112</t>
-  </si>
-  <si>
     <t>66.0931174089069</t>
   </si>
   <si>
@@ -1721,9 +1691,6 @@
     <t>22.165991902834</t>
   </si>
   <si>
-    <t>51.44653690829999</t>
-  </si>
-  <si>
     <t>21.0526315789474</t>
   </si>
   <si>
@@ -1733,12 +1700,6 @@
     <t>78.1052631578947</t>
   </si>
   <si>
-    <t>24.751619859423954</t>
-  </si>
-  <si>
-    <t>33.10885159369935</t>
-  </si>
-  <si>
     <t>23.3333333333333</t>
   </si>
   <si>
@@ -1748,9 +1709,6 @@
     <t>74.5454545454546</t>
   </si>
   <si>
-    <t>24.16508557849152</t>
-  </si>
-  <si>
     <t>52.1511017838405</t>
   </si>
   <si>
@@ -1760,9 +1718,6 @@
     <t>44.5960125918153</t>
   </si>
   <si>
-    <t>43.41933653975204</t>
-  </si>
-  <si>
     <t>77.4122807017544</t>
   </si>
   <si>
@@ -1772,9 +1727,6 @@
     <t>21.7105263157895</t>
   </si>
   <si>
-    <t>59.54914353930043</t>
-  </si>
-  <si>
     <t>33.3673469387755</t>
   </si>
   <si>
@@ -1784,27 +1736,18 @@
     <t>59.2857142857143</t>
   </si>
   <si>
-    <t>38.04299100406298</t>
-  </si>
-  <si>
     <t>76.304347826087</t>
   </si>
   <si>
     <t>1.19565217391304</t>
   </si>
   <si>
-    <t>61.37973880598064</t>
-  </si>
-  <si>
     <t>65.0475184794087</t>
   </si>
   <si>
     <t>34.9524815205913</t>
   </si>
   <si>
-    <t>52.77852435294843</t>
-  </si>
-  <si>
     <t>30.8478038815117</t>
   </si>
   <si>
@@ -1814,9 +1757,6 @@
     <t>62.8192032686415</t>
   </si>
   <si>
-    <t>35.03992866563627</t>
-  </si>
-  <si>
     <t>15.7127991675338</t>
   </si>
   <si>
@@ -1826,9 +1766,6 @@
     <t>77.1071800208117</t>
   </si>
   <si>
-    <t>18.14557851175196</t>
-  </si>
-  <si>
     <t>36.3728470111449</t>
   </si>
   <si>
@@ -1838,9 +1775,6 @@
     <t>62.5126646403242</t>
   </si>
   <si>
-    <t>39.13885294672474</t>
-  </si>
-  <si>
     <t>67.8685047720042</t>
   </si>
   <si>
@@ -1850,9 +1784,6 @@
     <t>31.7073170731707</t>
   </si>
   <si>
-    <t>63.88583945838991</t>
-  </si>
-  <si>
     <t>66.6315789473684</t>
   </si>
   <si>
@@ -1862,9 +1793,6 @@
     <t>33.0526315789474</t>
   </si>
   <si>
-    <t>59.23569468533365</t>
-  </si>
-  <si>
     <t>63.6923076923077</t>
   </si>
   <si>
@@ -1874,9 +1802,6 @@
     <t>35.5897435897436</t>
   </si>
   <si>
-    <t>57.22832395627735</t>
-  </si>
-  <si>
     <t>51.1482254697286</t>
   </si>
   <si>
@@ -1886,9 +1811,6 @@
     <t>41.6492693110647</t>
   </si>
   <si>
-    <t>46.872066408945834</t>
-  </si>
-  <si>
     <t>18.7692307692308</t>
   </si>
   <si>
@@ -1898,9 +1820,6 @@
     <t>38.6666666666667</t>
   </si>
   <si>
-    <t>23.018410657963965</t>
-  </si>
-  <si>
     <t>43.2804232804233</t>
   </si>
   <si>
@@ -1910,9 +1829,6 @@
     <t>42.3280423280423</t>
   </si>
   <si>
-    <t>51.36063393229185</t>
-  </si>
-  <si>
     <t>51.978021978022</t>
   </si>
   <si>
@@ -1922,9 +1838,6 @@
     <t>36.1538461538462</t>
   </si>
   <si>
-    <t>56.63743370494562</t>
-  </si>
-  <si>
     <t>55.8510638297872</t>
   </si>
   <si>
@@ -1934,9 +1847,6 @@
     <t>27.3404255319149</t>
   </si>
   <si>
-    <t>52.33473709504526</t>
-  </si>
-  <si>
     <t>62.8834355828221</t>
   </si>
   <si>
@@ -1946,9 +1856,6 @@
     <t>33.4355828220859</t>
   </si>
   <si>
-    <t>55.727744126659005</t>
-  </si>
-  <si>
     <t>63.135593220339</t>
   </si>
   <si>
@@ -1958,9 +1865,6 @@
     <t>33.4745762711864</t>
   </si>
   <si>
-    <t>57.90512589384031</t>
-  </si>
-  <si>
     <t>59.8739495798319</t>
   </si>
   <si>
@@ -1970,9 +1874,6 @@
     <t>35.7142857142857</t>
   </si>
   <si>
-    <t>58.12631565509244</t>
-  </si>
-  <si>
     <t>55.6701030927835</t>
   </si>
   <si>
@@ -1982,9 +1883,6 @@
     <t>36.1855670103093</t>
   </si>
   <si>
-    <t>58.201955759911144</t>
-  </si>
-  <si>
     <t>59.8771750255885</t>
   </si>
   <si>
@@ -1994,9 +1892,6 @@
     <t>32.6509723643808</t>
   </si>
   <si>
-    <t>53.04882430419827</t>
-  </si>
-  <si>
     <t>53.9165818921668</t>
   </si>
   <si>
@@ -2006,9 +1901,6 @@
     <t>40.0813835198372</t>
   </si>
   <si>
-    <t>50.28480507446328</t>
-  </si>
-  <si>
     <t>53.1762295081967</t>
   </si>
   <si>
@@ -2018,9 +1910,6 @@
     <t>34.6311475409836</t>
   </si>
   <si>
-    <t>49.87787993177812</t>
-  </si>
-  <si>
     <t>54.9180327868852</t>
   </si>
   <si>
@@ -2030,9 +1919,6 @@
     <t>37.7049180327869</t>
   </si>
   <si>
-    <t>53.52156526414184</t>
-  </si>
-  <si>
     <t>55.0308008213552</t>
   </si>
   <si>
@@ -2042,9 +1928,6 @@
     <t>37.1663244353183</t>
   </si>
   <si>
-    <t>55.93386251139917</t>
-  </si>
-  <si>
     <t>55.2331606217617</t>
   </si>
   <si>
@@ -2054,9 +1937,6 @@
     <t>36.2694300518135</t>
   </si>
   <si>
-    <t>49.85490329189804</t>
-  </si>
-  <si>
     <t>54.0229885057471</t>
   </si>
   <si>
@@ -2066,9 +1946,6 @@
     <t>40.3343782654127</t>
   </si>
   <si>
-    <t>49.55675359098105</t>
-  </si>
-  <si>
     <t>52.430196483971</t>
   </si>
   <si>
@@ -2078,9 +1955,6 @@
     <t>40.9513960703206</t>
   </si>
   <si>
-    <t>49.01492373553293</t>
-  </si>
-  <si>
     <t>46.7153284671533</t>
   </si>
   <si>
@@ -2090,9 +1964,6 @@
     <t>41.5015641293014</t>
   </si>
   <si>
-    <t>48.82427346983626</t>
-  </si>
-  <si>
     <t>46.4509394572025</t>
   </si>
   <si>
@@ -2102,9 +1973,6 @@
     <t>43.3194154488518</t>
   </si>
   <si>
-    <t>47.04578416887459</t>
-  </si>
-  <si>
     <t>50.7772020725389</t>
   </si>
   <si>
@@ -2114,9 +1982,6 @@
     <t>40.8290155440414</t>
   </si>
   <si>
-    <t>54.00557806426589</t>
-  </si>
-  <si>
     <t>60.9100310237849</t>
   </si>
   <si>
@@ -2126,9 +1991,6 @@
     <t>34.5398138572906</t>
   </si>
   <si>
-    <t>55.91394867943757</t>
-  </si>
-  <si>
     <t>58.0233793836344</t>
   </si>
   <si>
@@ -2138,9 +2000,6 @@
     <t>36.3443145589798</t>
   </si>
   <si>
-    <t>55.79149639486402</t>
-  </si>
-  <si>
     <t>59.4099694811801</t>
   </si>
   <si>
@@ -2150,9 +2009,6 @@
     <t>34.8931841302136</t>
   </si>
   <si>
-    <t>56.9688400788757</t>
-  </si>
-  <si>
     <t>62.8454452405322</t>
   </si>
   <si>
@@ -2162,18 +2018,12 @@
     <t>31.8321392016377</t>
   </si>
   <si>
-    <t>58.78088363146199</t>
-  </si>
-  <si>
     <t>5.33333333333333</t>
   </si>
   <si>
     <t>36.7179487179487</t>
   </si>
   <si>
-    <t>59.73575585157365</t>
-  </si>
-  <si>
     <t>57.1868583162218</t>
   </si>
   <si>
@@ -2183,9 +2033,6 @@
     <t>35.6262833675565</t>
   </si>
   <si>
-    <t>59.165067108564415</t>
-  </si>
-  <si>
     <t>60.9492988133765</t>
   </si>
   <si>
@@ -2195,9 +2042,6 @@
     <t>32.470334412082</t>
   </si>
   <si>
-    <t>50.94297692356892</t>
-  </si>
-  <si>
     <t>67.3890608875129</t>
   </si>
   <si>
@@ -2207,9 +2051,6 @@
     <t>24.3550051599587</t>
   </si>
   <si>
-    <t>57.36455328899002</t>
-  </si>
-  <si>
     <t>54.8254620123203</t>
   </si>
   <si>
@@ -2219,36 +2060,24 @@
     <t>36.1396303901437</t>
   </si>
   <si>
-    <t>56.02466162062245</t>
-  </si>
-  <si>
     <t>53.2241555783009</t>
   </si>
   <si>
     <t>10.0307062436029</t>
   </si>
   <si>
-    <t>51.249083475325136</t>
-  </si>
-  <si>
     <t>55.2577319587629</t>
   </si>
   <si>
     <t>34.4329896907216</t>
   </si>
   <si>
-    <t>56.10276320060855</t>
-  </si>
-  <si>
     <t>52.4008350730689</t>
   </si>
   <si>
     <t>7.30688935281837</t>
   </si>
   <si>
-    <t>48.78374972729895</t>
-  </si>
-  <si>
     <t>53.7667698658411</t>
   </si>
   <si>
@@ -2258,9 +2087,6 @@
     <t>37.0485036119711</t>
   </si>
   <si>
-    <t>45.88358401297331</t>
-  </si>
-  <si>
     <t>48.0749219562955</t>
   </si>
   <si>
@@ -2270,9 +2096,6 @@
     <t>42.2476586888658</t>
   </si>
   <si>
-    <t>44.274911386285474</t>
-  </si>
-  <si>
     <t>47.3744292237443</t>
   </si>
   <si>
@@ -2282,9 +2105,6 @@
     <t>48.7442922374429</t>
   </si>
   <si>
-    <t>48.25753055978728</t>
-  </si>
-  <si>
     <t>35.4209445585216</t>
   </si>
   <si>
@@ -2294,9 +2114,6 @@
     <t>32.4435318275154</t>
   </si>
   <si>
-    <t>39.69721228141546</t>
-  </si>
-  <si>
     <t>44.7314049586777</t>
   </si>
   <si>
@@ -2306,9 +2123,6 @@
     <t>46.1776859504132</t>
   </si>
   <si>
-    <t>42.98976306383011</t>
-  </si>
-  <si>
     <t>47.7857878475798</t>
   </si>
   <si>
@@ -2318,18 +2132,12 @@
     <t>43.6663233779609</t>
   </si>
   <si>
-    <t>41.21120871930036</t>
-  </si>
-  <si>
     <t>12.839248434238</t>
   </si>
   <si>
     <t>43.8413361169102</t>
   </si>
   <si>
-    <t>43.1334441901076</t>
-  </si>
-  <si>
     <t>41.5892672858617</t>
   </si>
   <si>
@@ -2339,9 +2147,6 @@
     <t>48.813209494324</t>
   </si>
   <si>
-    <t>43.9856787102888</t>
-  </si>
-  <si>
     <t>36.8312757201646</t>
   </si>
   <si>
@@ -2351,18 +2156,12 @@
     <t>35.3909465020576</t>
   </si>
   <si>
-    <t>39.908728030466804</t>
-  </si>
-  <si>
     <t>47.5897435897436</t>
   </si>
   <si>
     <t>12.4102564102564</t>
   </si>
   <si>
-    <t>41.39497419472275</t>
-  </si>
-  <si>
     <t>37.0408163265306</t>
   </si>
   <si>
@@ -2372,9 +2171,6 @@
     <t>41.6326530612245</t>
   </si>
   <si>
-    <t>44.020922431217805</t>
-  </si>
-  <si>
     <t>40.6345957011259</t>
   </si>
   <si>
@@ -2384,9 +2180,6 @@
     <t>42.0675537359263</t>
   </si>
   <si>
-    <t>45.14174266938169</t>
-  </si>
-  <si>
     <t>47.9917610710608</t>
   </si>
   <si>
@@ -2396,9 +2189,6 @@
     <t>42.0185375901133</t>
   </si>
   <si>
-    <t>45.70025754888783</t>
-  </si>
-  <si>
     <t>44.557477110885</t>
   </si>
   <si>
@@ -2408,9 +2198,6 @@
     <t>42.5228891149542</t>
   </si>
   <si>
-    <t>43.944988321539874</t>
-  </si>
-  <si>
     <t>37.9837067209776</t>
   </si>
   <si>
@@ -2420,9 +2207,6 @@
     <t>52.2403258655805</t>
   </si>
   <si>
-    <t>41.06808768712449</t>
-  </si>
-  <si>
     <t>49.8464687819857</t>
   </si>
   <si>
@@ -2432,9 +2216,6 @@
     <t>37.4616171954964</t>
   </si>
   <si>
-    <t>39.54370888135837</t>
-  </si>
-  <si>
     <t>45.1219512195122</t>
   </si>
   <si>
@@ -2444,9 +2225,6 @@
     <t>43.0894308943089</t>
   </si>
   <si>
-    <t>44.49076789556236</t>
-  </si>
-  <si>
     <t>47.5025484199796</t>
   </si>
   <si>
@@ -2456,9 +2234,6 @@
     <t>43.6289500509684</t>
   </si>
   <si>
-    <t>45.11205378928415</t>
-  </si>
-  <si>
     <t>43.7164339419978</t>
   </si>
   <si>
@@ -2468,9 +2243,6 @@
     <t>45.8646616541353</t>
   </si>
   <si>
-    <t>45.39501403998729</t>
-  </si>
-  <si>
     <t>51.1387163561077</t>
   </si>
   <si>
@@ -2480,9 +2252,6 @@
     <t>42.0289855072464</t>
   </si>
   <si>
-    <t>42.82646612410192</t>
-  </si>
-  <si>
     <t>42.5180598555212</t>
   </si>
   <si>
@@ -2492,9 +2261,6 @@
     <t>51.9091847265222</t>
   </si>
   <si>
-    <t>41.64977485208581</t>
-  </si>
-  <si>
     <t>47.2424557752341</t>
   </si>
   <si>
@@ -2504,9 +2270,6 @@
     <t>44.1207075962539</t>
   </si>
   <si>
-    <t>48.50005676880349</t>
-  </si>
-  <si>
     <t>49.1155046826223</t>
   </si>
   <si>
@@ -2516,9 +2279,6 @@
     <t>37.8772112382934</t>
   </si>
   <si>
-    <t>44.564563852730714</t>
-  </si>
-  <si>
     <t>49.2798353909465</t>
   </si>
   <si>
@@ -2528,9 +2288,6 @@
     <t>43.2098765432099</t>
   </si>
   <si>
-    <t>41.44570083691693</t>
-  </si>
-  <si>
     <t>46.2254395036194</t>
   </si>
   <si>
@@ -2540,9 +2297,6 @@
     <t>46.1220268872802</t>
   </si>
   <si>
-    <t>43.716410984783415</t>
-  </si>
-  <si>
     <t>44.9426485922836</t>
   </si>
   <si>
@@ -2552,9 +2306,6 @@
     <t>48.8008342022941</t>
   </si>
   <si>
-    <t>41.92939161577176</t>
-  </si>
-  <si>
     <t>52.8066528066528</t>
   </si>
   <si>
@@ -2564,18 +2315,12 @@
     <t>40.7484407484407</t>
   </si>
   <si>
-    <t>46.70188365677413</t>
-  </si>
-  <si>
     <t>10.6625258799172</t>
   </si>
   <si>
     <t>47.9296066252588</t>
   </si>
   <si>
-    <t>43.59745734489953</t>
-  </si>
-  <si>
     <t>47.0769230769231</t>
   </si>
   <si>
@@ -2585,18 +2330,12 @@
     <t>45.025641025641</t>
   </si>
   <si>
-    <t>44.75502267918618</t>
-  </si>
-  <si>
     <t>44.6502057613169</t>
   </si>
   <si>
     <t>47.8395061728395</t>
   </si>
   <si>
-    <t>38.989761330224454</t>
-  </si>
-  <si>
     <t>43.7888198757764</t>
   </si>
   <si>
@@ -2606,9 +2345,6 @@
     <t>47.5155279503106</t>
   </si>
   <si>
-    <t>37.89317987785804</t>
-  </si>
-  <si>
     <t>39.0658174097665</t>
   </si>
   <si>
@@ -2618,18 +2354,12 @@
     <t>54.3524416135881</t>
   </si>
   <si>
-    <t>37.11208530285397</t>
-  </si>
-  <si>
     <t>40.0417101147028</t>
   </si>
   <si>
     <t>48.1751824817518</t>
   </si>
   <si>
-    <t>37.57211305395462</t>
-  </si>
-  <si>
     <t>46.7221644120708</t>
   </si>
   <si>
@@ -2639,9 +2369,6 @@
     <t>39.6462018730489</t>
   </si>
   <si>
-    <t>44.421426740177566</t>
-  </si>
-  <si>
     <t>39.2259414225941</t>
   </si>
   <si>
@@ -2651,9 +2378,6 @@
     <t>45.6066945606695</t>
   </si>
   <si>
-    <t>39.79039902697465</t>
-  </si>
-  <si>
     <t>38.2780082987552</t>
   </si>
   <si>
@@ -2663,18 +2387,12 @@
     <t>46.9917012448133</t>
   </si>
   <si>
-    <t>40.79301706393875</t>
-  </si>
-  <si>
     <t>25.2837977296182</t>
   </si>
   <si>
     <t>37.6676986584107</t>
   </si>
   <si>
-    <t>36.490716267576886</t>
-  </si>
-  <si>
     <t>41.1157024793388</t>
   </si>
   <si>
@@ -2684,9 +2402,6 @@
     <t>45.9710743801653</t>
   </si>
   <si>
-    <t>38.426274915404065</t>
-  </si>
-  <si>
     <t>40.9331919406151</t>
   </si>
   <si>
@@ -2696,9 +2411,6 @@
     <t>45.1749734888653</t>
   </si>
   <si>
-    <t>35.83123519998135</t>
-  </si>
-  <si>
     <t>35.500515995872</t>
   </si>
   <si>
@@ -2708,9 +2420,6 @@
     <t>51.2899896800826</t>
   </si>
   <si>
-    <t>37.5929082850805</t>
-  </si>
-  <si>
     <t>31.4641744548287</t>
   </si>
   <si>
@@ -2720,9 +2429,6 @@
     <t>55.0363447559709</t>
   </si>
   <si>
-    <t>34.987626099157694</t>
-  </si>
-  <si>
     <t>33.0237358101135</t>
   </si>
   <si>
@@ -2732,18 +2438,12 @@
     <t>49.5356037151703</t>
   </si>
   <si>
-    <t>32.636741847002455</t>
-  </si>
-  <si>
     <t>34.102833158447</t>
   </si>
   <si>
     <t>13.7460650577125</t>
   </si>
   <si>
-    <t>33.87941297311683</t>
-  </si>
-  <si>
     <t>27.6439790575916</t>
   </si>
   <si>
@@ -2753,9 +2453,6 @@
     <t>59.0575916230366</t>
   </si>
   <si>
-    <t>29.092494688853876</t>
-  </si>
-  <si>
     <t>25.3902185223725</t>
   </si>
   <si>
@@ -2765,9 +2462,6 @@
     <t>54.630593132154</t>
   </si>
   <si>
-    <t>32.249739915675576</t>
-  </si>
-  <si>
     <t>32.4267782426778</t>
   </si>
   <si>
@@ -2777,9 +2471,6 @@
     <t>55.2301255230126</t>
   </si>
   <si>
-    <t>30.451601891604245</t>
-  </si>
-  <si>
     <t>27.7145811789038</t>
   </si>
   <si>
@@ -2789,18 +2480,12 @@
     <t>59.2554291623578</t>
   </si>
   <si>
-    <t>30.020513894293064</t>
-  </si>
-  <si>
     <t>28.2291666666667</t>
   </si>
   <si>
     <t>9.58333333333333</t>
   </si>
   <si>
-    <t>26.751795877263437</t>
-  </si>
-  <si>
     <t>34.3649946638207</t>
   </si>
   <si>
@@ -2810,9 +2495,6 @@
     <t>54.3223052294557</t>
   </si>
   <si>
-    <t>28.534803894055933</t>
-  </si>
-  <si>
     <t>28.9959016393443</t>
   </si>
   <si>
@@ -2822,9 +2504,6 @@
     <t>61.1680327868852</t>
   </si>
   <si>
-    <t>31.130015240728206</t>
-  </si>
-  <si>
     <t>33.5463258785943</t>
   </si>
   <si>
@@ -2834,9 +2513,6 @@
     <t>58.6794462193823</t>
   </si>
   <si>
-    <t>29.46151796054146</t>
-  </si>
-  <si>
     <t>30.5439330543933</t>
   </si>
   <si>
@@ -2846,9 +2522,6 @@
     <t>59.4142259414226</t>
   </si>
   <si>
-    <t>27.613560950757023</t>
-  </si>
-  <si>
     <t>35.0418410041841</t>
   </si>
   <si>
@@ -2858,9 +2531,6 @@
     <t>40.8995815899582</t>
   </si>
   <si>
-    <t>36.983639744204716</t>
-  </si>
-  <si>
     <t>30.4531085353003</t>
   </si>
   <si>
@@ -2870,9 +2540,6 @@
     <t>59.536354056902</t>
   </si>
   <si>
-    <t>27.07679426557291</t>
-  </si>
-  <si>
     <t>27.2066458982347</t>
   </si>
   <si>
@@ -2882,9 +2549,6 @@
     <t>63.7590861889927</t>
   </si>
   <si>
-    <t>29.349744076503057</t>
-  </si>
-  <si>
     <t>25.7655755015839</t>
   </si>
   <si>
@@ -2894,9 +2558,6 @@
     <t>66.8426610348469</t>
   </si>
   <si>
-    <t>30.784192958098053</t>
-  </si>
-  <si>
     <t>29.4358974358974</t>
   </si>
   <si>
@@ -2906,9 +2567,6 @@
     <t>62.7692307692308</t>
   </si>
   <si>
-    <t>31.446183699044578</t>
-  </si>
-  <si>
     <t>26.8267223382046</t>
   </si>
   <si>
@@ -2918,9 +2576,6 @@
     <t>67.4321503131524</t>
   </si>
   <si>
-    <t>25.22065395431286</t>
-  </si>
-  <si>
     <t>26.4033264033264</t>
   </si>
   <si>
@@ -2930,9 +2585,6 @@
     <t>65.3846153846154</t>
   </si>
   <si>
-    <t>24.78854174769243</t>
-  </si>
-  <si>
     <t>22.7459016393443</t>
   </si>
   <si>
@@ -2942,9 +2594,6 @@
     <t>64.0368852459016</t>
   </si>
   <si>
-    <t>27.365652857827637</t>
-  </si>
-  <si>
     <t>51.7201834862385</t>
   </si>
   <si>
@@ -2954,9 +2603,6 @@
     <t>39.908256880734</t>
   </si>
   <si>
-    <t>40.74148753697142</t>
-  </si>
-  <si>
     <t>42.9735234215886</t>
   </si>
   <si>
@@ -2966,9 +2612,6 @@
     <t>35.9470468431772</t>
   </si>
   <si>
-    <t>43.82780657348594</t>
-  </si>
-  <si>
     <t>52.9116465863454</t>
   </si>
   <si>
@@ -2976,9 +2619,6 @@
   </si>
   <si>
     <t>37.4497991967872</t>
-  </si>
-  <si>
-    <t>43.395857325771594</t>
   </si>
   <si>
     <t>JY56-Z1</t>
@@ -4512,10 +4152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M370"/>
+  <dimension ref="A1:L370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323:L370"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -12196,7 +11836,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>523</v>
       </c>
@@ -12233,11 +11873,8 @@
       <c r="L203" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="M203" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>523</v>
       </c>
@@ -12266,19 +11903,16 @@
         <v>2.304</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>523</v>
       </c>
@@ -12307,19 +11941,16 @@
         <v>4.081</v>
       </c>
       <c r="J205" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="K205" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="M205" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>523</v>
       </c>
@@ -12348,19 +11979,16 @@
         <v>4.107</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M206" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>523</v>
       </c>
@@ -12389,19 +12017,16 @@
         <v>2.18</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M207" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>523</v>
       </c>
@@ -12430,19 +12055,16 @@
         <v>2.139</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="M208" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>523</v>
       </c>
@@ -12471,19 +12093,16 @@
         <v>1.21</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="M209" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>523</v>
       </c>
@@ -12512,19 +12131,16 @@
         <v>1.971</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>523</v>
       </c>
@@ -12553,19 +12169,16 @@
         <v>3.288</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="M211" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>523</v>
       </c>
@@ -12594,19 +12207,16 @@
         <v>2.061</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="M212" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>523</v>
       </c>
@@ -12635,19 +12245,16 @@
         <v>2.741</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="M213" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>523</v>
       </c>
@@ -12676,19 +12283,16 @@
         <v>2.07</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="M214" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>523</v>
       </c>
@@ -12725,11 +12329,8 @@
       <c r="L215">
         <v>59.1</v>
       </c>
-      <c r="M215" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13">
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>523</v>
       </c>
@@ -12758,19 +12359,16 @@
         <v>1.398</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>523</v>
       </c>
@@ -12799,19 +12397,16 @@
         <v>2.086</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="M217" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>523</v>
       </c>
@@ -12840,19 +12435,16 @@
         <v>2.289</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M218" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>523</v>
       </c>
@@ -12881,19 +12473,16 @@
         <v>1.854</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="M219" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>523</v>
       </c>
@@ -12922,19 +12511,16 @@
         <v>2.592</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="L220">
         <v>22.5</v>
       </c>
-      <c r="M220" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13">
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>523</v>
       </c>
@@ -12963,19 +12549,16 @@
         <v>3.762</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="K221">
         <v>0</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="M221" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>523</v>
       </c>
@@ -13004,19 +12587,16 @@
         <v>3.336</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="M222" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>523</v>
       </c>
@@ -13045,19 +12625,16 @@
         <v>1.969</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="M223" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>523</v>
       </c>
@@ -13086,19 +12663,16 @@
         <v>2.623</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="M224" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>523</v>
       </c>
@@ -13127,19 +12701,16 @@
         <v>5.506</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>523</v>
       </c>
@@ -13168,19 +12739,16 @@
         <v>4.641</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="M226" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>523</v>
       </c>
@@ -13209,19 +12777,16 @@
         <v>4.997</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="M227" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>523</v>
       </c>
@@ -13250,19 +12815,16 @@
         <v>3.987</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="M228" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>523</v>
       </c>
@@ -13291,19 +12853,16 @@
         <v>2.89</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="M229" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>523</v>
       </c>
@@ -13332,19 +12891,16 @@
         <v>4.261</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="M230" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>523</v>
       </c>
@@ -13373,19 +12929,16 @@
         <v>4.765</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="M231" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>523</v>
       </c>
@@ -13414,19 +12967,16 @@
         <v>4.594</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>523</v>
       </c>
@@ -13455,19 +13005,16 @@
         <v>4.803</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>523</v>
       </c>
@@ -13496,19 +13043,16 @@
         <v>4.993</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M234" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>523</v>
       </c>
@@ -13537,19 +13081,16 @@
         <v>5.544</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="M235" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>523</v>
       </c>
@@ -13578,19 +13119,16 @@
         <v>5.325</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>523</v>
       </c>
@@ -13619,19 +13157,16 @@
         <v>4.768</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="M237" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>523</v>
       </c>
@@ -13660,19 +13195,16 @@
         <v>4.412</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M238" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>523</v>
       </c>
@@ -13701,19 +13233,16 @@
         <v>3.994</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>523</v>
       </c>
@@ -13742,19 +13271,16 @@
         <v>4.668</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="M240" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>523</v>
       </c>
@@ -13783,19 +13309,16 @@
         <v>4.87</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="M241" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>523</v>
       </c>
@@ -13824,19 +13347,16 @@
         <v>4.384</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>672</v>
+        <v>633</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="M242" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>523</v>
       </c>
@@ -13865,19 +13385,16 @@
         <v>4.186</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M243" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>523</v>
       </c>
@@ -13906,19 +13423,16 @@
         <v>4.264</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M244" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>523</v>
       </c>
@@ -13947,19 +13461,16 @@
         <v>4.391</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M245" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>523</v>
       </c>
@@ -13988,19 +13499,16 @@
         <v>3.887</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>687</v>
+        <v>644</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>688</v>
+        <v>645</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>523</v>
       </c>
@@ -14029,19 +13537,16 @@
         <v>5.22</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>691</v>
+        <v>647</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>523</v>
       </c>
@@ -14070,19 +13575,16 @@
         <v>4.54</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>695</v>
+        <v>650</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>523</v>
       </c>
@@ -14111,19 +13613,16 @@
         <v>4.612</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>523</v>
       </c>
@@ -14152,19 +13651,16 @@
         <v>4.755</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>523</v>
       </c>
@@ -14193,19 +13689,16 @@
         <v>5.54</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>707</v>
+        <v>659</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>708</v>
+        <v>660</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="M251" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>523</v>
       </c>
@@ -14237,16 +13730,13 @@
         <v>61</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="M252" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>523</v>
       </c>
@@ -14275,19 +13765,16 @@
         <v>5.591</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="M253" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>523</v>
       </c>
@@ -14316,19 +13803,16 @@
         <v>4.598</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="M254" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>523</v>
       </c>
@@ -14357,19 +13841,16 @@
         <v>4.35</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>523</v>
       </c>
@@ -14398,19 +13879,16 @@
         <v>4.656</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>726</v>
+        <v>673</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>727</v>
+        <v>674</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>523</v>
       </c>
@@ -14439,19 +13917,16 @@
         <v>4.214</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>730</v>
+        <v>676</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>731</v>
+        <v>677</v>
       </c>
       <c r="L257" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M257" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13">
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -14480,19 +13955,16 @@
         <v>4.847</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>733</v>
+        <v>678</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>129</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>523</v>
       </c>
@@ -14521,19 +13993,16 @@
         <v>4.132</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>736</v>
+        <v>680</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M259" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13">
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>523</v>
       </c>
@@ -14562,19 +14031,16 @@
         <v>3.767</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>739</v>
+        <v>682</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>523</v>
       </c>
@@ -14603,19 +14069,16 @@
         <v>3.982</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>743</v>
+        <v>685</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>744</v>
+        <v>686</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="M261" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -14644,19 +14107,16 @@
         <v>4.353</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>748</v>
+        <v>689</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>523</v>
       </c>
@@ -14685,19 +14145,16 @@
         <v>3.739</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>751</v>
+        <v>691</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>752</v>
+        <v>692</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>523</v>
       </c>
@@ -14726,19 +14183,16 @@
         <v>3.78</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>755</v>
+        <v>694</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>756</v>
+        <v>695</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>523</v>
       </c>
@@ -14767,19 +14221,16 @@
         <v>2.957</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>760</v>
+        <v>698</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>523</v>
       </c>
@@ -14808,19 +14259,16 @@
         <v>3.997</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>689</v>
+        <v>646</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>523</v>
       </c>
@@ -14849,19 +14297,16 @@
         <v>4.241</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
         <v>523</v>
       </c>
@@ -14890,19 +14335,16 @@
         <v>3.062</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>770</v>
+        <v>705</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>771</v>
+        <v>706</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="M268" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
         <v>523</v>
       </c>
@@ -14931,19 +14373,16 @@
         <v>3.342</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>774</v>
+        <v>708</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>775</v>
+        <v>709</v>
       </c>
       <c r="L269">
         <v>40</v>
       </c>
-      <c r="M269" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13">
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>523</v>
       </c>
@@ -14972,19 +14411,16 @@
         <v>4.088</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="M270" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
         <v>523</v>
       </c>
@@ -15013,19 +14449,16 @@
         <v>3.909</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>781</v>
+        <v>713</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>782</v>
+        <v>714</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>523</v>
       </c>
@@ -15054,19 +14487,16 @@
         <v>4.797</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>785</v>
+        <v>716</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>786</v>
+        <v>717</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="M272" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>523</v>
       </c>
@@ -15095,19 +14525,16 @@
         <v>3.667</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>789</v>
+        <v>719</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>790</v>
+        <v>720</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="M273" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -15136,19 +14563,16 @@
         <v>3.649</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>793</v>
+        <v>722</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>794</v>
+        <v>723</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="M274" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>523</v>
       </c>
@@ -15177,19 +14601,16 @@
         <v>3.743</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>797</v>
+        <v>725</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>798</v>
+        <v>726</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>523</v>
       </c>
@@ -15218,19 +14639,16 @@
         <v>4.272</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>801</v>
+        <v>728</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>802</v>
+        <v>729</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>523</v>
       </c>
@@ -15259,19 +14677,16 @@
         <v>4.484</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>805</v>
+        <v>731</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>806</v>
+        <v>732</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>523</v>
       </c>
@@ -15300,19 +14715,16 @@
         <v>4.04</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>810</v>
+        <v>735</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="M278" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>523</v>
       </c>
@@ -15341,19 +14753,16 @@
         <v>3.58</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>813</v>
+        <v>737</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>814</v>
+        <v>738</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="M279" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>523</v>
       </c>
@@ -15382,19 +14791,16 @@
         <v>3.291</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>817</v>
+        <v>740</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>818</v>
+        <v>741</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="M280" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>523</v>
       </c>
@@ -15423,19 +14829,16 @@
         <v>4.268</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>821</v>
+        <v>743</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>822</v>
+        <v>744</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>523</v>
       </c>
@@ -15464,19 +14867,16 @@
         <v>3.739</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>825</v>
+        <v>746</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>826</v>
+        <v>747</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="M282" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>523</v>
       </c>
@@ -15505,19 +14905,16 @@
         <v>3.55</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="M283" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>523</v>
       </c>
@@ -15546,19 +14943,16 @@
         <v>3.099</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>833</v>
+        <v>752</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>834</v>
+        <v>753</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="M284" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>523</v>
       </c>
@@ -15587,19 +14981,16 @@
         <v>3.515</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>837</v>
+        <v>755</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>838</v>
+        <v>756</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="M285" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>523</v>
       </c>
@@ -15628,19 +15019,16 @@
         <v>3.597</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>841</v>
+        <v>758</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>842</v>
+        <v>759</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="M286" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>523</v>
       </c>
@@ -15672,16 +15060,13 @@
         <v>86</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>845</v>
+        <v>761</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="M287" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>523</v>
       </c>
@@ -15710,19 +15095,16 @@
         <v>4.287</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>848</v>
+        <v>763</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>849</v>
+        <v>764</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="M288" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" t="s">
         <v>523</v>
       </c>
@@ -15751,19 +15133,16 @@
         <v>3.231</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>852</v>
+        <v>766</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="M289" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" t="s">
         <v>523</v>
       </c>
@@ -15792,19 +15171,16 @@
         <v>3.22</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>855</v>
+        <v>768</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>856</v>
+        <v>769</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="M290" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" t="s">
         <v>523</v>
       </c>
@@ -15833,19 +15209,16 @@
         <v>2.824</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>859</v>
+        <v>771</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>860</v>
+        <v>772</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="M291" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" t="s">
         <v>523</v>
       </c>
@@ -15874,19 +15247,16 @@
         <v>3.58</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>863</v>
+        <v>774</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="M292" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
         <v>523</v>
       </c>
@@ -15915,19 +15285,16 @@
         <v>3.896</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>866</v>
+        <v>776</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>867</v>
+        <v>777</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="M293" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
         <v>523</v>
       </c>
@@ -15956,19 +15323,16 @@
         <v>3.819</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>870</v>
+        <v>779</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>871</v>
+        <v>780</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="M294" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" t="s">
         <v>523</v>
       </c>
@@ -15997,19 +15361,16 @@
         <v>3.68</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>874</v>
+        <v>782</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>875</v>
+        <v>783</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="M295" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" t="s">
         <v>523</v>
       </c>
@@ -16038,19 +15399,16 @@
         <v>3.642</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>878</v>
+        <v>785</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="M296" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" t="s">
         <v>523</v>
       </c>
@@ -16079,19 +15437,16 @@
         <v>3.745</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>881</v>
+        <v>787</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>882</v>
+        <v>788</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="M297" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" t="s">
         <v>523</v>
       </c>
@@ -16120,19 +15475,16 @@
         <v>3.849</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>885</v>
+        <v>790</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>886</v>
+        <v>791</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="M298" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" t="s">
         <v>523</v>
       </c>
@@ -16161,19 +15513,16 @@
         <v>3.817</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>889</v>
+        <v>793</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>890</v>
+        <v>794</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="M299" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
         <v>523</v>
       </c>
@@ -16202,19 +15551,16 @@
         <v>3.754</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>894</v>
+        <v>797</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="M300" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" t="s">
         <v>523</v>
       </c>
@@ -16243,19 +15589,16 @@
         <v>2.684</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>897</v>
+        <v>799</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>898</v>
+        <v>800</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="M301" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" t="s">
         <v>523</v>
       </c>
@@ -16284,19 +15627,16 @@
         <v>4.282</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>901</v>
+        <v>802</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>902</v>
+        <v>803</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M302" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" t="s">
         <v>523</v>
       </c>
@@ -16325,19 +15665,16 @@
         <v>3.131</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>904</v>
+        <v>804</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="M303" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" t="s">
         <v>523</v>
       </c>
@@ -16366,19 +15703,16 @@
         <v>3.083</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>908</v>
+        <v>807</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>909</v>
+        <v>808</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="M304" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
         <v>523</v>
       </c>
@@ -16407,19 +15741,16 @@
         <v>3.155</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>912</v>
+        <v>810</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>913</v>
+        <v>811</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="M305" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
         <v>523</v>
       </c>
@@ -16448,19 +15779,16 @@
         <v>3.141</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>916</v>
+        <v>813</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>917</v>
+        <v>814</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="M306" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
         <v>523</v>
       </c>
@@ -16489,19 +15817,16 @@
         <v>2.444</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>920</v>
+        <v>816</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>921</v>
+        <v>817</v>
       </c>
       <c r="L307">
         <v>62.1875</v>
       </c>
-      <c r="M307" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13">
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
         <v>523</v>
       </c>
@@ -16530,19 +15855,16 @@
         <v>2.229</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>923</v>
+        <v>818</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>924</v>
+        <v>819</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="M308" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
         <v>523</v>
       </c>
@@ -16571,19 +15893,16 @@
         <v>2.834</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>927</v>
+        <v>821</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>928</v>
+        <v>822</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="M309" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
         <v>523</v>
       </c>
@@ -16612,19 +15931,16 @@
         <v>2.572</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>931</v>
+        <v>824</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>932</v>
+        <v>825</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="M310" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
         <v>523</v>
       </c>
@@ -16653,19 +15969,16 @@
         <v>2.465</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>935</v>
+        <v>827</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>936</v>
+        <v>828</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="M311" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
         <v>523</v>
       </c>
@@ -16694,19 +16007,16 @@
         <v>3.687</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>939</v>
+        <v>830</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>940</v>
+        <v>831</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="M312" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" t="s">
         <v>523</v>
       </c>
@@ -16735,19 +16045,16 @@
         <v>2.768</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>943</v>
+        <v>833</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>944</v>
+        <v>834</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="M313" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" t="s">
         <v>523</v>
       </c>
@@ -16776,19 +16083,16 @@
         <v>2.65</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>947</v>
+        <v>836</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>948</v>
+        <v>837</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="M314" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
         <v>523</v>
       </c>
@@ -16817,19 +16121,16 @@
         <v>4.581</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>951</v>
+        <v>839</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>952</v>
+        <v>840</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="M315" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
         <v>523</v>
       </c>
@@ -16858,19 +16159,16 @@
         <v>3.145</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>955</v>
+        <v>842</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>956</v>
+        <v>843</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="M316" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
         <v>523</v>
       </c>
@@ -16899,19 +16197,16 @@
         <v>2.34</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>959</v>
+        <v>845</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>960</v>
+        <v>846</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="M317" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
         <v>523</v>
       </c>
@@ -16940,19 +16235,16 @@
         <v>1.445</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>963</v>
+        <v>848</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>964</v>
+        <v>849</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="M318" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
         <v>523</v>
       </c>
@@ -16981,19 +16273,16 @@
         <v>2.948</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>967</v>
+        <v>851</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>968</v>
+        <v>852</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="M319" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
         <v>523</v>
       </c>
@@ -17022,19 +16311,16 @@
         <v>3.926</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>971</v>
+        <v>854</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>972</v>
+        <v>855</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="M320" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321" t="s">
         <v>523</v>
       </c>
@@ -17063,19 +16349,16 @@
         <v>4.49</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>975</v>
+        <v>857</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>976</v>
+        <v>858</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="M321" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322" t="s">
         <v>523</v>
       </c>
@@ -17104,21 +16387,18 @@
         <v>3.389</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>979</v>
+        <v>860</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>980</v>
+        <v>861</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="M322" s="1" t="s">
-        <v>982</v>
+        <v>862</v>
       </c>
     </row>
     <row r="323" spans="1:12">
       <c r="A323" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B323">
         <v>2865</v>
@@ -17156,7 +16436,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B324">
         <v>2865.57</v>
@@ -17194,7 +16474,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B325">
         <v>2867.86</v>
@@ -17221,18 +16501,18 @@
         <v>4.362</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>984</v>
+        <v>864</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>985</v>
+        <v>865</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>986</v>
+        <v>866</v>
       </c>
     </row>
     <row r="326" spans="1:12">
       <c r="A326" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B326">
         <v>2868.3</v>
@@ -17270,7 +16550,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B327">
         <v>2868.57</v>
@@ -17297,18 +16577,18 @@
         <v>3.628</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>987</v>
+        <v>867</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>988</v>
+        <v>868</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>989</v>
+        <v>869</v>
       </c>
     </row>
     <row r="328" spans="1:12">
       <c r="A328" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B328">
         <v>2869.2</v>
@@ -17338,15 +16618,15 @@
         <v>50</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>991</v>
+        <v>871</v>
       </c>
     </row>
     <row r="329" spans="1:12">
       <c r="A329" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B329">
         <v>2869.8</v>
@@ -17373,18 +16653,18 @@
         <v>3.962</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>992</v>
+        <v>872</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>993</v>
+        <v>873</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>994</v>
+        <v>874</v>
       </c>
     </row>
     <row r="330" spans="1:12">
       <c r="A330" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B330">
         <v>2870.3</v>
@@ -17411,18 +16691,18 @@
         <v>3.655</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>995</v>
+        <v>875</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>996</v>
+        <v>876</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>997</v>
+        <v>877</v>
       </c>
     </row>
     <row r="331" spans="1:12">
       <c r="A331" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B331">
         <v>2870.87</v>
@@ -17460,7 +16740,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B332">
         <v>2871.5</v>
@@ -17487,18 +16767,18 @@
         <v>3.616</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>998</v>
+        <v>878</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>999</v>
+        <v>879</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>1000</v>
+        <v>880</v>
       </c>
     </row>
     <row r="333" spans="1:12">
       <c r="A333" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B333">
         <v>2871.77</v>
@@ -17525,10 +16805,10 @@
         <v>3.918</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>1001</v>
+        <v>881</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>1002</v>
+        <v>882</v>
       </c>
       <c r="L333" s="1" t="s">
         <v>330</v>
@@ -17536,7 +16816,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B334">
         <v>2872.75</v>
@@ -17563,18 +16843,18 @@
         <v>3.313</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>1003</v>
+        <v>883</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>1004</v>
+        <v>884</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>1005</v>
+        <v>885</v>
       </c>
     </row>
     <row r="335" spans="1:12">
       <c r="A335" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B335">
         <v>2873.3</v>
@@ -17601,18 +16881,18 @@
         <v>2.808</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>1006</v>
+        <v>886</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>1007</v>
+        <v>887</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>1008</v>
+        <v>888</v>
       </c>
     </row>
     <row r="336" spans="1:12">
       <c r="A336" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B336">
         <v>2873.91</v>
@@ -17639,18 +16919,18 @@
         <v>2.766</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>1009</v>
+        <v>889</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>1011</v>
+        <v>891</v>
       </c>
     </row>
     <row r="337" spans="1:12">
       <c r="A337" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B337">
         <v>2874.4</v>
@@ -17677,18 +16957,18 @@
         <v>3.051</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>1012</v>
+        <v>892</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>1013</v>
+        <v>893</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>1014</v>
+        <v>894</v>
       </c>
     </row>
     <row r="338" spans="1:12">
       <c r="A338" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B338">
         <v>2874.79</v>
@@ -17718,15 +16998,15 @@
         <v>344</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>1015</v>
+        <v>895</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>1016</v>
+        <v>896</v>
       </c>
     </row>
     <row r="339" spans="1:12">
       <c r="A339" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B339">
         <v>2875.3</v>
@@ -17753,18 +17033,18 @@
         <v>3.19</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>1017</v>
+        <v>897</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>1018</v>
+        <v>898</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>1019</v>
+        <v>899</v>
       </c>
     </row>
     <row r="340" spans="1:12">
       <c r="A340" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B340">
         <v>2875.8</v>
@@ -17791,18 +17071,18 @@
         <v>3.348</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>1021</v>
+        <v>901</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>1022</v>
+        <v>902</v>
       </c>
     </row>
     <row r="341" spans="1:12">
       <c r="A341" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B341">
         <v>2876.2</v>
@@ -17829,18 +17109,18 @@
         <v>3.403</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>1023</v>
+        <v>903</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>1024</v>
+        <v>904</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>1025</v>
+        <v>905</v>
       </c>
     </row>
     <row r="342" spans="1:12">
       <c r="A342" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B342">
         <v>2876.7</v>
@@ -17867,18 +17147,18 @@
         <v>3.965</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>1026</v>
+        <v>906</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>1027</v>
+        <v>907</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>1028</v>
+        <v>908</v>
       </c>
     </row>
     <row r="343" spans="1:12">
       <c r="A343" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B343">
         <v>2877.2</v>
@@ -17905,18 +17185,18 @@
         <v>4.043</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>1029</v>
+        <v>909</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>1030</v>
+        <v>910</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>1031</v>
+        <v>911</v>
       </c>
     </row>
     <row r="344" spans="1:12">
       <c r="A344" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B344">
         <v>2877.89</v>
@@ -17943,18 +17223,18 @@
         <v>3.587</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>1032</v>
+        <v>912</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>1033</v>
+        <v>913</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>1034</v>
+        <v>914</v>
       </c>
     </row>
     <row r="345" spans="1:12">
       <c r="A345" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B345">
         <v>2878.3</v>
@@ -17984,15 +17264,15 @@
         <v>304</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>1035</v>
+        <v>915</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>1036</v>
+        <v>916</v>
       </c>
     </row>
     <row r="346" spans="1:12">
       <c r="A346" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B346">
         <v>2878.68</v>
@@ -18019,18 +17299,18 @@
         <v>3.182</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>1037</v>
+        <v>917</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>1038</v>
+        <v>918</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>1019</v>
+        <v>899</v>
       </c>
     </row>
     <row r="347" spans="1:12">
       <c r="A347" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B347">
         <v>2880.29</v>
@@ -18057,18 +17337,18 @@
         <v>3.676</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>1039</v>
+        <v>919</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>1041</v>
+        <v>921</v>
       </c>
     </row>
     <row r="348" spans="1:12">
       <c r="A348" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B348">
         <v>2881.15</v>
@@ -18095,18 +17375,18 @@
         <v>3.419</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>1042</v>
+        <v>922</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>1043</v>
+        <v>923</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>1044</v>
+        <v>924</v>
       </c>
     </row>
     <row r="349" spans="1:12">
       <c r="A349" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B349">
         <v>2882.03</v>
@@ -18136,15 +17416,15 @@
         <v>40</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>1045</v>
+        <v>925</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>1046</v>
+        <v>926</v>
       </c>
     </row>
     <row r="350" spans="1:12">
       <c r="A350" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B350">
         <v>2883.38</v>
@@ -18171,18 +17451,18 @@
         <v>3.665</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>1047</v>
+        <v>927</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>1048</v>
+        <v>928</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>1049</v>
+        <v>929</v>
       </c>
     </row>
     <row r="351" spans="1:12">
       <c r="A351" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B351">
         <v>2884.18</v>
@@ -18209,18 +17489,18 @@
         <v>3.188</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>1050</v>
+        <v>930</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>1051</v>
+        <v>931</v>
       </c>
       <c r="L351" s="1" t="s">
-        <v>1052</v>
+        <v>932</v>
       </c>
     </row>
     <row r="352" spans="1:12">
       <c r="A352" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B352">
         <v>2884.84</v>
@@ -18247,18 +17527,18 @@
         <v>2.813</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>1053</v>
+        <v>933</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>1054</v>
+        <v>934</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>1055</v>
+        <v>935</v>
       </c>
     </row>
     <row r="353" spans="1:12">
       <c r="A353" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B353">
         <v>2886.39</v>
@@ -18285,18 +17565,18 @@
         <v>3.209</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>1056</v>
+        <v>936</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>1057</v>
+        <v>937</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>1058</v>
+        <v>938</v>
       </c>
     </row>
     <row r="354" spans="1:12">
       <c r="A354" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B354">
         <v>2887</v>
@@ -18323,18 +17603,18 @@
         <v>3.16</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>1059</v>
+        <v>939</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>1060</v>
+        <v>940</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>1061</v>
+        <v>941</v>
       </c>
     </row>
     <row r="355" spans="1:12">
       <c r="A355" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B355">
         <v>2888.18</v>
@@ -18361,18 +17641,18 @@
         <v>3.163</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>1062</v>
+        <v>942</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>1063</v>
+        <v>943</v>
       </c>
       <c r="L355" s="1" t="s">
-        <v>1064</v>
+        <v>944</v>
       </c>
     </row>
     <row r="356" spans="1:12">
       <c r="A356" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B356">
         <v>2889.23</v>
@@ -18399,18 +17679,18 @@
         <v>2.748</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>1065</v>
+        <v>945</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>1066</v>
+        <v>946</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>1067</v>
+        <v>947</v>
       </c>
     </row>
     <row r="357" spans="1:12">
       <c r="A357" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B357">
         <v>2890.23</v>
@@ -18437,18 +17717,18 @@
         <v>2.793</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>1068</v>
+        <v>948</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>1069</v>
+        <v>949</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>1070</v>
+        <v>950</v>
       </c>
     </row>
     <row r="358" spans="1:12">
       <c r="A358" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B358">
         <v>2891.24</v>
@@ -18475,18 +17755,18 @@
         <v>2.865</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>1071</v>
+        <v>951</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>1072</v>
+        <v>952</v>
       </c>
       <c r="L358" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="359" spans="1:12">
       <c r="A359" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B359">
         <v>2892.35</v>
@@ -18513,18 +17793,18 @@
         <v>2.983</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>1073</v>
+        <v>953</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>1074</v>
+        <v>954</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>1075</v>
+        <v>955</v>
       </c>
     </row>
     <row r="360" spans="1:12">
       <c r="A360" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B360">
         <v>2893.27</v>
@@ -18551,18 +17831,18 @@
         <v>3.077</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>1076</v>
+        <v>956</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>1077</v>
+        <v>957</v>
       </c>
       <c r="L360" s="1" t="s">
-        <v>1078</v>
+        <v>958</v>
       </c>
     </row>
     <row r="361" spans="1:12">
       <c r="A361" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B361">
         <v>2894.1</v>
@@ -18589,18 +17869,18 @@
         <v>2.594</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>1079</v>
+        <v>959</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>1081</v>
+        <v>961</v>
       </c>
     </row>
     <row r="362" spans="1:12">
       <c r="A362" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B362">
         <v>2894.83</v>
@@ -18627,18 +17907,18 @@
         <v>2.726</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>1082</v>
+        <v>962</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>1083</v>
+        <v>963</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>1084</v>
+        <v>964</v>
       </c>
     </row>
     <row r="363" spans="1:12">
       <c r="A363" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B363">
         <v>2895.73</v>
@@ -18665,18 +17945,18 @@
         <v>2.639</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>1085</v>
+        <v>965</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>1086</v>
+        <v>966</v>
       </c>
       <c r="L363" s="1" t="s">
-        <v>1087</v>
+        <v>967</v>
       </c>
     </row>
     <row r="364" spans="1:12">
       <c r="A364" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B364">
         <v>2896.7</v>
@@ -18703,18 +17983,18 @@
         <v>2.35</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>1088</v>
+        <v>968</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>1089</v>
+        <v>969</v>
       </c>
       <c r="L364" s="1" t="s">
-        <v>1090</v>
+        <v>970</v>
       </c>
     </row>
     <row r="365" spans="1:12">
       <c r="A365" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B365">
         <v>2897.64</v>
@@ -18741,18 +18021,18 @@
         <v>2.545</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>1091</v>
+        <v>971</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>1092</v>
+        <v>972</v>
       </c>
       <c r="L365" s="1" t="s">
-        <v>1093</v>
+        <v>973</v>
       </c>
     </row>
     <row r="366" spans="1:12">
       <c r="A366" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B366">
         <v>2898.62</v>
@@ -18779,18 +18059,18 @@
         <v>2.887</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>1094</v>
+        <v>974</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>1095</v>
+        <v>975</v>
       </c>
       <c r="L366" s="1" t="s">
-        <v>1096</v>
+        <v>976</v>
       </c>
     </row>
     <row r="367" spans="1:12">
       <c r="A367" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B367">
         <v>2899.36</v>
@@ -18817,18 +18097,18 @@
         <v>2.822</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>1097</v>
+        <v>977</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>1098</v>
+        <v>978</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>1099</v>
+        <v>979</v>
       </c>
     </row>
     <row r="368" spans="1:12">
       <c r="A368" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B368">
         <v>2900.42</v>
@@ -18855,18 +18135,18 @@
         <v>2.738</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>1100</v>
+        <v>980</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>1101</v>
+        <v>981</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>1102</v>
+        <v>982</v>
       </c>
     </row>
     <row r="369" spans="1:12">
       <c r="A369" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B369">
         <v>2901.38</v>
@@ -18893,18 +18173,18 @@
         <v>3.152</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>1103</v>
+        <v>983</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>1104</v>
+        <v>984</v>
       </c>
       <c r="L369" s="1" t="s">
-        <v>1105</v>
+        <v>985</v>
       </c>
     </row>
     <row r="370" spans="1:12">
       <c r="A370" t="s">
-        <v>983</v>
+        <v>863</v>
       </c>
       <c r="B370">
         <v>2903.24</v>
@@ -18931,13 +18211,13 @@
         <v>2.078</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>1106</v>
+        <v>986</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>1107</v>
+        <v>987</v>
       </c>
       <c r="L370" s="1" t="s">
-        <v>1108</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
